--- a/DATA/Vocabularies/locations.xlsx
+++ b/DATA/Vocabularies/locations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>Phrases</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Conditional Phrases</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -459,6 +464,7 @@
           <t>Shacks, sharks, informal, hostel, squatter, camp, township, the location</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -474,6 +480,7 @@
           <t>Court, hearing</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -489,6 +496,7 @@
           <t xml:space="preserve">company, business, gate, premises, factory, </t>
         </is>
       </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -504,6 +512,7 @@
           <t>Stadium, sports field</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -516,9 +525,10 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>church, congregation, believers, temple, muslim, jew, christian, jewish, christianity, islam</t>
-        </is>
-      </c>
+          <t>church, congregation, believers, temple, muslim, jew, christian, jewish, christianity, islam, religious, Judaism</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -534,6 +544,7 @@
           <t>Teacher, teachers, headmaster, school, primary, secondary, highschool, learners, pupils</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -549,6 +560,7 @@
           <t>Students, Campus, Univeristy, college</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DATA/Vocabularies/locations.xlsx
+++ b/DATA/Vocabularies/locations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Conditional Phrases</t>
+          <t>Conditional_Phrases</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>cleaned_phrases</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>cleaned_conditional_phrases</t>
         </is>
       </c>
     </row>
@@ -461,10 +471,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Shacks, sharks, informal, hostel, squatter, camp, township, the location</t>
+          <t>['Shacks', ' sharks', ' informal', ' hostel', ' squatter', ' camp', ' township', ' the location']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>['shack', 'shark', 'informal', 'hostel', 'squatter', 'camp', 'township', 'location']</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['shack', 'shark', 'informal', 'hostel', 'squatter', 'camp', 'township', 'location']</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -477,10 +497,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Court, hearing</t>
+          <t>['Court', ' hearing']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>['court', 'hearing']</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['court', 'hearing']</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -493,10 +523,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">company, business, gate, premises, factory, </t>
+          <t>['company', ' business', ' gate', ' premises', ' factory', ' ']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['company', 'business', 'gate', 'premise', 'factory']</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['company', 'business', 'gate', 'premise', 'factory']</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -509,10 +549,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Stadium, sports field</t>
+          <t>['Stadium', ' sports field']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>['stadium', 'sport', 'field']</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['stadium', 'sport', 'field']</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -525,10 +575,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>church, congregation, believers, temple, muslim, jew, christian, jewish, christianity, islam, religious, Judaism</t>
+          <t>['church', ' congregation', ' believers', ' temple', ' muslim', ' jew', ' christian', ' jewish', ' christianity', ' islam', ' religious', ' Judaism']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>['church', 'congregation', 'believer', 'temple', 'muslim', 'jew', 'christian', 'jewish', 'christianity', 'islam', 'religious', 'judaism']</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['church', 'congregation', 'believer', 'temple', 'muslim', 'jew', 'christian', 'jewish', 'christianity', 'islam', 'religious', 'judaism']</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -541,10 +601,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Teacher, teachers, headmaster, school, primary, secondary, highschool, learners, pupils</t>
+          <t>['Teacher', ' teachers', ' headmaster', ' school', ' primary', ' secondary', ' highschool', ' learners', ' pupils']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>['teacher', 'teacher', 'headmaster', 'school', 'primary', 'secondary', 'highschool', 'learner', 'pupils']</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['teacher', 'teacher', 'headmaster', 'school', 'primary', 'secondary', 'highschool', 'learner', 'pupils']</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -557,10 +627,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Students, Campus, Univeristy, college</t>
+          <t>['Students', ' Campus', ' Univeristy', ' college']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>['student', 'campus', 'univeristy', 'college']</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['student', 'campus', 'univeristy', 'college']</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DATA/Vocabularies/locations.xlsx
+++ b/DATA/Vocabularies/locations.xlsx
@@ -480,11 +480,7 @@
           <t>['shack', 'shark', 'informal', 'hostel', 'squatter', 'camp', 'township', 'location']</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>['shack', 'shark', 'informal', 'hostel', 'squatter', 'camp', 'township', 'location']</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -506,11 +502,7 @@
           <t>['court', 'hearing']</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>['court', 'hearing']</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,11 +524,7 @@
           <t>['company', 'business', 'gate', 'premise', 'factory']</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>['company', 'business', 'gate', 'premise', 'factory']</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -558,11 +546,7 @@
           <t>['stadium', 'sport', 'field']</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>['stadium', 'sport', 'field']</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -584,11 +568,7 @@
           <t>['church', 'congregation', 'believer', 'temple', 'muslim', 'jew', 'christian', 'jewish', 'christianity', 'islam', 'religious', 'judaism']</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>['church', 'congregation', 'believer', 'temple', 'muslim', 'jew', 'christian', 'jewish', 'christianity', 'islam', 'religious', 'judaism']</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -610,11 +590,7 @@
           <t>['teacher', 'teacher', 'headmaster', 'school', 'primary', 'secondary', 'highschool', 'learner', 'pupils']</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>['teacher', 'teacher', 'headmaster', 'school', 'primary', 'secondary', 'highschool', 'learner', 'pupils']</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -636,11 +612,7 @@
           <t>['student', 'campus', 'univeristy', 'college']</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>['student', 'campus', 'univeristy', 'college']</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DATA/Vocabularies/locations.xlsx
+++ b/DATA/Vocabularies/locations.xlsx
@@ -471,13 +471,13 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Shacks', ' sharks', ' informal', ' hostel', ' squatter', ' camp', ' township', ' the location']</t>
+          <t>['Shacks', 'sharks', 'informal', 'hostel', 'squatter', 'camp', 'township', 'the location']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['shack', 'shark', 'informal', 'hostel', 'squatter', 'camp', 'township', 'location']</t>
+          <t>['shacks,sharks,informal,hostel,squatter,camp,township,the', 'location']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -493,13 +493,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['Court', ' hearing']</t>
+          <t>['Court', 'hearing']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['court', 'hearing']</t>
+          <t>['court,hearing']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -515,13 +515,13 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['company', ' business', ' gate', ' premises', ' factory', ' ']</t>
+          <t>['company', 'business', 'gate', 'premises', 'factory']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['company', 'business', 'gate', 'premise', 'factory']</t>
+          <t>['company,business,gate,premises,factory']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -537,13 +537,13 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['Stadium', ' sports field']</t>
+          <t>['Stadium', 'sports field']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['stadium', 'sport', 'field']</t>
+          <t>['stadium,sports', 'field']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -559,13 +559,13 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['church', ' congregation', ' believers', ' temple', ' muslim', ' jew', ' christian', ' jewish', ' christianity', ' islam', ' religious', ' Judaism']</t>
+          <t>['church', 'congregation', 'believers', 'temple', 'muslim', 'jew', 'christian', 'jewish', 'christianity', 'islam', 'religious', 'Judaism']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['church', 'congregation', 'believer', 'temple', 'muslim', 'jew', 'christian', 'jewish', 'christianity', 'islam', 'religious', 'judaism']</t>
+          <t>['church,congregation,believers,temple,muslim,jew,christian,jewish,christianity,islam,religious,judaism']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -581,13 +581,13 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['Teacher', ' teachers', ' headmaster', ' school', ' primary', ' secondary', ' highschool', ' learners', ' pupils']</t>
+          <t>['Teacher', 'teachers', 'headmaster', 'school', 'primary', 'secondary', 'highschool', 'learners', 'pupils']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['teacher', 'teacher', 'headmaster', 'school', 'primary', 'secondary', 'highschool', 'learner', 'pupils']</t>
+          <t>['teacher,teachers,headmaster,school,primary,secondary,highschool,learners,pupils']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -603,13 +603,13 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['Students', ' Campus', ' Univeristy', ' college']</t>
+          <t>['Students', 'Campus', 'Univeristy', 'college']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['student', 'campus', 'univeristy', 'college']</t>
+          <t>['students,campus,univeristy,college']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>

--- a/DATA/Vocabularies/locations.xlsx
+++ b/DATA/Vocabularies/locations.xlsx
@@ -471,13 +471,13 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Shacks', 'sharks', 'informal', 'hostel', 'squatter', 'camp', 'township', 'the location']</t>
+          <t>['Shacks', 'sharks', 'informal', 'hostel', 'squatter', 'camp', 'township', 'the location', 'shanty town', 'informal settlement', 'Informal housing']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['shacks,sharks,informal,hostel,squatter,camp,township,the', 'location']</t>
+          <t>['shacks,sharks,informal,hostel,squatter,camp,township,the', 'location,shanty', 'town,informal', 'settlement,informal', 'housing']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -581,13 +581,13 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['Teacher', 'teachers', 'headmaster', 'school', 'primary', 'secondary', 'highschool', 'learners', 'pupils']</t>
+          <t>['Teacher', 'teachers', 'headmaster', 'school', 'primary', 'secondary', 'highschool', 'learners', 'pupi']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['teacher,teachers,headmaster,school,primary,secondary,highschool,learners,pupils']</t>
+          <t>['teacher,teachers,headmaster,school,primary,secondary,highschool,learners,pupi']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -603,13 +603,13 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['Students', 'Campus', 'Univeristy', 'college']</t>
+          <t>['Student', 'Campus', 'Univeristy', 'college', 'universities']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['students,campus,univeristy,college']</t>
+          <t>['student,campus,univeristy,college,universities']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>

--- a/DATA/Vocabularies/locations.xlsx
+++ b/DATA/Vocabularies/locations.xlsx
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -484,7 +484,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -506,7 +506,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -528,7 +528,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -572,7 +572,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
